--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Nigeria Administrative Wards </t>
+    <t xml:space="preserve">NG-Imm Administrative Wards </t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T08:07:26+01:00</t>
+    <t>2025-07-03T11:54:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -344,10 +344,10 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-wards</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>https://nphcda.gov.ng/immunizationIG/ValueSet/nigeria-wards</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -706,7 +706,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="17.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="39.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.39453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T16:58:52+01:00</t>
+    <t>2025-07-04T18:56:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T18:56:28+01:00</t>
+    <t>2025-07-04T19:33:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T19:33:02+01:00</t>
+    <t>2025-07-17T18:57:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T18:57:38+01:00</t>
+    <t>2025-08-03T02:35:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-nigeria-administrative-ward.xlsx
+++ b/StructureDefinition-nigeria-administrative-ward.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-03T02:35:31+01:00</t>
+    <t>2025-08-03T02:50:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
